--- a/实验数据（新） (Autosaved).xlsx
+++ b/实验数据（新） (Autosaved).xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leimiaomiao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leimiaomiao/Documents/Projects/Postgraduate/Multi-Objective-Workflow-Scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5140" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="-5140" yWindow="-21160" windowWidth="38400" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="实验数据" sheetId="1" r:id="rId1"/>
@@ -292,55 +292,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>138.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145.0</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>147.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>151.0</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>151.0</c:v>
+                  <c:v>135.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152.0</c:v>
+                  <c:v>135.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>154.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>157.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>157.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>157.0</c:v>
+                  <c:v>137.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>157.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>157.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>161.0</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -352,55 +352,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>157.0</c:v>
+                  <c:v>209.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.0</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.0</c:v>
+                  <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137.0</c:v>
+                  <c:v>122.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147.0</c:v>
+                  <c:v>195.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110.0</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>140.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>151.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>162.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>105.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128.0</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>116.0</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,55 +444,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>129.0</c:v>
+                  <c:v>116.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.0</c:v>
+                  <c:v>122.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>154.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154.0</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>157.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>157.0</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157.0</c:v>
+                  <c:v>127.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>157.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>161.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>161.0</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>161.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>161.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>163.0</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,55 +504,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>259.0</c:v>
+                  <c:v>282.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>133.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>131.0</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>123.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>131.0</c:v>
+                  <c:v>106.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>124.0</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>138.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>131.0</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,25 +596,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>136.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139.0</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.0</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>142.0</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147.0</c:v>
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>133.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,24 +629,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>88.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -659,15 +665,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2088016208"/>
-        <c:axId val="-2088012912"/>
+        <c:axId val="2141691440"/>
+        <c:axId val="-2145146160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2088016208"/>
+        <c:axId val="2141691440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="165.0"/>
-          <c:min val="135.0"/>
+          <c:max val="150.0"/>
+          <c:min val="115.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -722,16 +728,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088012912"/>
+        <c:crossAx val="-2145146160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2088012912"/>
+        <c:axId val="-2145146160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="250.0"/>
+          <c:max val="290.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -787,7 +793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088016208"/>
+        <c:crossAx val="2141691440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="30.0"/>
@@ -1006,64 +1012,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>289.0</c:v>
+                  <c:v>252.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>294.0</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>297.0</c:v>
+                  <c:v>257.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>298.0</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300.0</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>301.0</c:v>
+                  <c:v>261.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>301.0</c:v>
+                  <c:v>261.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>305.0</c:v>
+                  <c:v>263.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>305.0</c:v>
+                  <c:v>263.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>306.0</c:v>
+                  <c:v>263.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>311.0</c:v>
+                  <c:v>263.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>312.0</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>315.0</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>316.0</c:v>
+                  <c:v>268.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>316.0</c:v>
+                  <c:v>271.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>317.0</c:v>
+                  <c:v>274.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>319.0</c:v>
+                  <c:v>274.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>319.0</c:v>
+                  <c:v>278.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>322.0</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>322.0</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,64 +1081,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>315.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>286.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>302.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>262.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>318.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>311.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>307.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>357.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>321.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>363.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>332.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>254.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>306.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>357.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>340.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>265.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>321.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>275.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>324.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>268.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>328.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>284.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>367.0</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>262.0</c:v>
+                  <c:v>333.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>278.0</c:v>
+                  <c:v>317.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,64 +1182,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>270.0</c:v>
+                  <c:v>228.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>304.0</c:v>
+                  <c:v>233.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>306.0</c:v>
+                  <c:v>237.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>307.0</c:v>
+                  <c:v>241.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>307.0</c:v>
+                  <c:v>247.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>307.0</c:v>
+                  <c:v>247.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>307.0</c:v>
+                  <c:v>249.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>307.0</c:v>
+                  <c:v>254.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>307.0</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>307.0</c:v>
+                  <c:v>258.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>307.0</c:v>
+                  <c:v>259.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>307.0</c:v>
+                  <c:v>261.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>308.0</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>310.0</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>310.0</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>310.0</c:v>
+                  <c:v>271.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>310.0</c:v>
+                  <c:v>272.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310.0</c:v>
+                  <c:v>274.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>310.0</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>310.0</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,64 +1251,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>614.0</c:v>
+                  <c:v>578.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>304.0</c:v>
+                  <c:v>575.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>299.0</c:v>
+                  <c:v>554.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>474.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>536.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>552.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>466.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>403.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>11.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>302.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>302.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>302.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>302.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>305.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>296.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>305.0</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>305.0</c:v>
+                  <c:v>269.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>299.0</c:v>
+                  <c:v>218.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>296.0</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>296.0</c:v>
+                  <c:v>267.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>296.0</c:v>
+                  <c:v>216.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>299.0</c:v>
+                  <c:v>344.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>299.0</c:v>
+                  <c:v>343.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>299.0</c:v>
+                  <c:v>343.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>304.0</c:v>
+                  <c:v>342.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,64 +1352,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>274.0</c:v>
+                  <c:v>242.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>277.0</c:v>
+                  <c:v>243.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>279.0</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>280.0</c:v>
+                  <c:v>248.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>281.0</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>283.0</c:v>
+                  <c:v>251.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>284.0</c:v>
+                  <c:v>252.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>286.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>287.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>289.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>290.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>293.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>294.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>295.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>296.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>297.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>298.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>299.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>302.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>303.0</c:v>
+                  <c:v>257.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,64 +1385,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>288.0</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>259.0</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>256.0</c:v>
+                  <c:v>102.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>251.0</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>229.0</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>221.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>203.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>154.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>27.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,14 +1421,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2087899328"/>
-        <c:axId val="-2087896032"/>
+        <c:axId val="2146724608"/>
+        <c:axId val="-2021453616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2087899328"/>
+        <c:axId val="2146724608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="270.0"/>
+          <c:max val="280.0"/>
+          <c:min val="240.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1549,13 +1484,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087896032"/>
+        <c:crossAx val="-2021453616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2087896032"/>
+        <c:axId val="-2021453616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,7 +1547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087899328"/>
+        <c:crossAx val="2146724608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1829,64 +1764,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>348.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>351.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>354.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>354.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>356.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>359.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>361.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>362.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>365.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>367.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
+                  <c:v>361.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>363.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>366.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>368.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>368.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>369.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>373.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>373.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>373.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>373.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>378.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>378.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>378.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>379.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>379.0</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>380.0</c:v>
+                  <c:v>368.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>381.0</c:v>
+                  <c:v>370.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>386.0</c:v>
+                  <c:v>370.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>386.0</c:v>
+                  <c:v>370.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1898,64 +1833,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>433.0</c:v>
+                  <c:v>452.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>402.0</c:v>
+                  <c:v>415.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>424.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>415.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>369.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>405.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>393.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>406.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>441.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>372.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>501.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>437.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>391.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>415.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>395.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>482.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>461.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>398.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>381.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>429.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>415.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>354.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>424.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>412.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>439.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>434.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>425.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>436.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>429.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>444.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>433.0</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>470.0</c:v>
+                  <c:v>397.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,64 +1934,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>320.0</c:v>
+                  <c:v>315.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>363.0</c:v>
+                  <c:v>326.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>366.0</c:v>
+                  <c:v>329.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>366.0</c:v>
+                  <c:v>330.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>366.0</c:v>
+                  <c:v>333.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>341.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>352.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>353.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>359.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>359.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>361.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>367.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>367.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>367.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>367.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>367.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>367.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>369.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>369.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>370.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>370.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>373.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>373.0</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>373.0</c:v>
+                  <c:v>375.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>373.0</c:v>
+                  <c:v>377.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>373.0</c:v>
+                  <c:v>380.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,64 +2003,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>828.0</c:v>
+                  <c:v>802.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>779.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>738.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>770.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>634.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>622.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>556.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>557.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>396.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>394.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>402.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>398.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>396.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>398.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>401.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>404.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>402.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>395.0</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>395.0</c:v>
+                  <c:v>234.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>402.0</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>403.0</c:v>
+                  <c:v>237.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>397.0</c:v>
+                  <c:v>286.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>396.0</c:v>
+                  <c:v>303.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>397.0</c:v>
+                  <c:v>421.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>395.0</c:v>
+                  <c:v>399.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>394.0</c:v>
+                  <c:v>420.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2169,46 +2104,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>331.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>335.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>338.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>341.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>343.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>344.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>346.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
+                  <c:v>345.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>347.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>348.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>352.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>354.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>355.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>356.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>357.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>358.0</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>349.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>351.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>353.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>361.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>366.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>367.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2220,46 +2161,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>297.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>308.0</c:v>
+                  <c:v>223.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>252.0</c:v>
+                  <c:v>222.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>249.0</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>229.0</c:v>
+                  <c:v>181.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>219.0</c:v>
+                  <c:v>169.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205.0</c:v>
+                  <c:v>151.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>162.0</c:v>
+                  <c:v>137.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>157.0</c:v>
+                  <c:v>117.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>153.0</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>126.0</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>119.0</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>118.0</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>109.0</c:v>
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,13 +2221,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2087855392"/>
-        <c:axId val="-2087852096"/>
+        <c:axId val="-2143953120"/>
+        <c:axId val="-2143899264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2087855392"/>
+        <c:axId val="-2143953120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="380.0"/>
           <c:min val="330.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2336,12 +2284,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087852096"/>
+        <c:crossAx val="-2143899264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2087852096"/>
+        <c:axId val="-2143899264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2398,7 +2346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087855392"/>
+        <c:crossAx val="-2143953120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2571,9 +2519,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0933031496062992"/>
-          <c:y val="0.142200714494022"/>
-          <c:w val="0.85946062992126"/>
-          <c:h val="0.771233231262759"/>
+          <c:y val="0.17807527982769"/>
+          <c:w val="0.83328547463237"/>
+          <c:h val="0.735358920942057"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2616,64 +2564,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>516.0</c:v>
+                  <c:v>471.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>516.0</c:v>
+                  <c:v>478.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>520.0</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>526.0</c:v>
+                  <c:v>488.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>527.0</c:v>
+                  <c:v>491.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>527.0</c:v>
+                  <c:v>494.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>530.0</c:v>
+                  <c:v>495.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>530.0</c:v>
+                  <c:v>499.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>536.0</c:v>
+                  <c:v>499.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>536.0</c:v>
+                  <c:v>502.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>536.0</c:v>
+                  <c:v>502.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>536.0</c:v>
+                  <c:v>503.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>538.0</c:v>
+                  <c:v>504.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>539.0</c:v>
+                  <c:v>507.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>539.0</c:v>
+                  <c:v>507.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>540.0</c:v>
+                  <c:v>508.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>540.0</c:v>
+                  <c:v>509.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>542.0</c:v>
+                  <c:v>509.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>544.0</c:v>
+                  <c:v>510.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>544.0</c:v>
+                  <c:v>511.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2685,64 +2633,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>608.0</c:v>
+                  <c:v>590.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>557.0</c:v>
+                  <c:v>540.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>599.0</c:v>
+                  <c:v>559.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>693.0</c:v>
+                  <c:v>619.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>604.0</c:v>
+                  <c:v>572.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>522.0</c:v>
+                  <c:v>568.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>587.0</c:v>
+                  <c:v>481.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>563.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>497.0</c:v>
+                  <c:v>490.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>581.0</c:v>
+                  <c:v>531.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>621.0</c:v>
+                  <c:v>546.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>557.0</c:v>
+                  <c:v>595.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>489.0</c:v>
+                  <c:v>576.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>553.0</c:v>
+                  <c:v>572.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>532.0</c:v>
+                  <c:v>482.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>612.0</c:v>
+                  <c:v>568.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>593.0</c:v>
+                  <c:v>591.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>509.0</c:v>
+                  <c:v>559.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>507.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>532.0</c:v>
+                  <c:v>514.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,64 +2734,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>463.0</c:v>
+                  <c:v>434.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>465.0</c:v>
+                  <c:v>441.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>530.0</c:v>
+                  <c:v>444.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>538.0</c:v>
+                  <c:v>447.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>538.0</c:v>
+                  <c:v>452.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>538.0</c:v>
+                  <c:v>457.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>538.0</c:v>
+                  <c:v>461.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>538.0</c:v>
+                  <c:v>464.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>538.0</c:v>
+                  <c:v>475.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>538.0</c:v>
+                  <c:v>479.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>540.0</c:v>
+                  <c:v>482.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>540.0</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>540.0</c:v>
+                  <c:v>487.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>540.0</c:v>
+                  <c:v>488.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>540.0</c:v>
+                  <c:v>494.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>540.0</c:v>
+                  <c:v>495.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>540.0</c:v>
+                  <c:v>496.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>540.0</c:v>
+                  <c:v>504.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>544.0</c:v>
+                  <c:v>511.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>544.0</c:v>
+                  <c:v>519.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2855,64 +2803,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1121.0</c:v>
+                  <c:v>1082.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1121.0</c:v>
+                  <c:v>1079.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.0</c:v>
+                  <c:v>985.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>556.0</c:v>
+                  <c:v>1073.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>555.0</c:v>
+                  <c:v>914.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>545.0</c:v>
+                  <c:v>891.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>553.0</c:v>
+                  <c:v>803.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>556.0</c:v>
+                  <c:v>780.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>555.0</c:v>
+                  <c:v>703.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>554.0</c:v>
+                  <c:v>383.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>555.0</c:v>
+                  <c:v>377.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>555.0</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>553.0</c:v>
+                  <c:v>229.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>555.0</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>554.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>552.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>545.0</c:v>
+                  <c:v>522.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>552.0</c:v>
+                  <c:v>507.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>545.0</c:v>
+                  <c:v>514.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,55 +2904,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>455.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>457.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>462.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>471.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>472.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>475.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>476.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>478.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>480.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>481.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>483.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>487.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>488.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>490.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>493.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>497.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>498.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>499.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>507.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>508.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>510.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>513.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>530.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3016,55 +2949,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>591.0</c:v>
+                  <c:v>374.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>556.0</c:v>
+                  <c:v>368.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>528.0</c:v>
+                  <c:v>297.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>475.0</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>452.0</c:v>
+                  <c:v>243.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>438.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>411.0</c:v>
+                  <c:v>229.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>353.0</c:v>
+                  <c:v>204.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>349.0</c:v>
+                  <c:v>202.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>336.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>334.0</c:v>
+                  <c:v>171.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>282.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>225.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>196.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>186.0</c:v>
+                  <c:v>153.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3079,15 +2997,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111675856"/>
-        <c:axId val="-2111671776"/>
+        <c:axId val="2141077424"/>
+        <c:axId val="2141081872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2111675856"/>
+        <c:axId val="2141077424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="560.0"/>
-          <c:min val="460.0"/>
+          <c:max val="520.0"/>
+          <c:min val="450.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3142,14 +3060,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111671776"/>
+        <c:crossAx val="2141081872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2111671776"/>
+        <c:axId val="2141081872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1100.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3204,7 +3124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111675856"/>
+        <c:crossAx val="2141077424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3422,64 +3342,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>138.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>145.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>151.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>151.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>152.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>154.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>161.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>161.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>161.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>163.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3491,64 +3411,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>157.0</c:v>
+                  <c:v>209.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.0</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.0</c:v>
+                  <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137.0</c:v>
+                  <c:v>122.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147.0</c:v>
+                  <c:v>195.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110.0</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>140.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>151.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>162.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>105.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128.0</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>116.0</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>159.0</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>113.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>126.0</c:v>
+                  <c:v>135.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3592,64 +3512,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>129.0</c:v>
+                  <c:v>116.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.0</c:v>
+                  <c:v>122.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>154.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154.0</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>157.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>157.0</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157.0</c:v>
+                  <c:v>127.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>157.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>161.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>161.0</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>161.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>161.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>163.0</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>163.0</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>163.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3661,64 +3581,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>259.0</c:v>
+                  <c:v>282.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>133.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>130.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3762,25 +3682,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>136.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139.0</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.0</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>142.0</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147.0</c:v>
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>133.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,24 +3715,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>88.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3825,15 +3751,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2107208416"/>
-        <c:axId val="-2107187312"/>
+        <c:axId val="2126900512"/>
+        <c:axId val="2146251872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2107208416"/>
+        <c:axId val="2126900512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="165.0"/>
-          <c:min val="135.0"/>
+          <c:max val="145.0"/>
+          <c:min val="120.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3888,14 +3814,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107187312"/>
+        <c:crossAx val="2146251872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2107187312"/>
+        <c:axId val="2146251872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3950,7 +3878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107208416"/>
+        <c:crossAx val="2126900512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4168,64 +4096,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>140.0</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142.0</c:v>
+                  <c:v>177.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.0</c:v>
+                  <c:v>177.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145.0</c:v>
+                  <c:v>178.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.0</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149.0</c:v>
+                  <c:v>181.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150.0</c:v>
+                  <c:v>181.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150.0</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150.0</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>152.0</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>154.0</c:v>
+                  <c:v>183.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>154.0</c:v>
+                  <c:v>184.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>156.0</c:v>
+                  <c:v>187.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>156.0</c:v>
+                  <c:v>188.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>157.0</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>167.0</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>167.0</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>167.0</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>167.0</c:v>
+                  <c:v>196.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>167.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4237,64 +4165,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>160.0</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>143.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>154.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>153.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>135.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>184.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>148.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>194.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>182.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>148.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>152.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>182.0</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>166.0</c:v>
+                  <c:v>149.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>215.0</c:v>
+                  <c:v>127.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>124.0</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4338,64 +4266,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>116.0</c:v>
+                  <c:v>146.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139.0</c:v>
+                  <c:v>151.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157.0</c:v>
+                  <c:v>151.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157.0</c:v>
+                  <c:v>156.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>163.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>166.0</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>167.0</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167.0</c:v>
+                  <c:v>173.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>167.0</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>167.0</c:v>
+                  <c:v>178.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>167.0</c:v>
+                  <c:v>181.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>167.0</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>167.0</c:v>
+                  <c:v>187.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>167.0</c:v>
+                  <c:v>188.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>167.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>167.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>167.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>167.0</c:v>
+                  <c:v>204.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4407,64 +4335,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>305.0</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>164.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>167.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>161.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>151.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>161.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>160.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>158.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>160.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>158.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>160.0</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>154.0</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>156.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4508,28 +4436,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>122.0</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123.0</c:v>
+                  <c:v>156.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.0</c:v>
+                  <c:v>158.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130.0</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>136.0</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>137.0</c:v>
+                  <c:v>167.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>139.0</c:v>
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>172.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4541,27 +4472,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>174.0</c:v>
+                  <c:v>146.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145.0</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.0</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4577,15 +4511,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106955024"/>
-        <c:axId val="-2106950240"/>
+        <c:axId val="2140264800"/>
+        <c:axId val="2140454080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106955024"/>
+        <c:axId val="2140264800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="170.0"/>
-          <c:min val="120.0"/>
+          <c:max val="210.0"/>
+          <c:min val="140.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4640,13 +4574,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106950240"/>
+        <c:crossAx val="2140454080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106950240"/>
+        <c:axId val="2140454080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4703,7 +4637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106955024"/>
+        <c:crossAx val="2140264800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4921,64 +4855,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>138.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>145.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>151.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>151.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>152.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>154.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>161.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>161.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>161.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>163.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4990,64 +4924,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>157.0</c:v>
+                  <c:v>209.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.0</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.0</c:v>
+                  <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137.0</c:v>
+                  <c:v>122.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147.0</c:v>
+                  <c:v>195.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110.0</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>140.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>151.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>162.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>105.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128.0</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>116.0</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>159.0</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>113.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>126.0</c:v>
+                  <c:v>135.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5091,64 +5025,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>129.0</c:v>
+                  <c:v>116.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.0</c:v>
+                  <c:v>122.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>154.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154.0</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>157.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>157.0</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157.0</c:v>
+                  <c:v>127.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>157.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>161.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>161.0</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>161.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>161.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>163.0</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>163.0</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>163.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5160,64 +5094,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>259.0</c:v>
+                  <c:v>282.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>133.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>130.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5261,25 +5195,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>136.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139.0</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.0</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>142.0</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147.0</c:v>
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>133.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5291,24 +5228,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>88.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5324,14 +5264,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106816256"/>
-        <c:axId val="-2106812960"/>
+        <c:axId val="2140298416"/>
+        <c:axId val="2140873824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106816256"/>
+        <c:axId val="2140298416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="135.0"/>
+          <c:max val="150.0"/>
+          <c:min val="115.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5386,12 +5327,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106812960"/>
+        <c:crossAx val="2140873824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106812960"/>
+        <c:axId val="2140873824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5448,7 +5389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106816256"/>
+        <c:crossAx val="2140298416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5666,64 +5607,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1103.0</c:v>
+                  <c:v>1165.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1109.0</c:v>
+                  <c:v>1169.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1121.0</c:v>
+                  <c:v>1192.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1121.0</c:v>
+                  <c:v>1192.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1130.0</c:v>
+                  <c:v>1197.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1133.0</c:v>
+                  <c:v>1201.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1133.0</c:v>
+                  <c:v>1209.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1137.0</c:v>
+                  <c:v>1211.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1141.0</c:v>
+                  <c:v>1217.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1141.0</c:v>
+                  <c:v>1217.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1141.0</c:v>
+                  <c:v>1217.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1144.0</c:v>
+                  <c:v>1220.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1144.0</c:v>
+                  <c:v>1226.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1144.0</c:v>
+                  <c:v>1226.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1144.0</c:v>
+                  <c:v>1226.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1151.0</c:v>
+                  <c:v>1234.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1151.0</c:v>
+                  <c:v>1246.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1158.0</c:v>
+                  <c:v>1259.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1160.0</c:v>
+                  <c:v>1261.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1160.0</c:v>
+                  <c:v>1265.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5735,64 +5676,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>990.0</c:v>
+                  <c:v>1659.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1438.0</c:v>
+                  <c:v>1708.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1256.0</c:v>
+                  <c:v>1172.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1211.0</c:v>
+                  <c:v>1765.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1001.0</c:v>
+                  <c:v>1516.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1176.0</c:v>
+                  <c:v>1758.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1022.0</c:v>
+                  <c:v>1355.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1308.0</c:v>
+                  <c:v>1472.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1008.0</c:v>
+                  <c:v>1405.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1164.0</c:v>
+                  <c:v>1728.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>840.0</c:v>
+                  <c:v>1705.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1169.0</c:v>
+                  <c:v>1471.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1321.0</c:v>
+                  <c:v>1435.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1163.0</c:v>
+                  <c:v>1422.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1153.0</c:v>
+                  <c:v>1557.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>892.0</c:v>
+                  <c:v>1867.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1393.0</c:v>
+                  <c:v>1501.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1338.0</c:v>
+                  <c:v>1118.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1080.0</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1070.0</c:v>
+                  <c:v>1245.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5836,64 +5777,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1068.0</c:v>
+                  <c:v>1144.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1133.0</c:v>
+                  <c:v>1145.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1133.0</c:v>
+                  <c:v>1163.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1133.0</c:v>
+                  <c:v>1178.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1134.0</c:v>
+                  <c:v>1190.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1134.0</c:v>
+                  <c:v>1199.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1134.0</c:v>
+                  <c:v>1205.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1134.0</c:v>
+                  <c:v>1216.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1137.0</c:v>
+                  <c:v>1221.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1137.0</c:v>
+                  <c:v>1225.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1137.0</c:v>
+                  <c:v>1225.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1141.0</c:v>
+                  <c:v>1235.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1141.0</c:v>
+                  <c:v>1235.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1141.0</c:v>
+                  <c:v>1246.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1141.0</c:v>
+                  <c:v>1254.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1141.0</c:v>
+                  <c:v>1264.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1151.0</c:v>
+                  <c:v>1267.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1151.0</c:v>
+                  <c:v>1275.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1151.0</c:v>
+                  <c:v>1275.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1192.0</c:v>
+                  <c:v>1279.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5905,64 +5846,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>2311.0</c:v>
+                  <c:v>2953.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1089.0</c:v>
+                  <c:v>2314.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1118.0</c:v>
+                  <c:v>2254.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1124.0</c:v>
+                  <c:v>1883.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1108.0</c:v>
+                  <c:v>2817.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1086.0</c:v>
+                  <c:v>2093.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1143.0</c:v>
+                  <c:v>2757.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1111.0</c:v>
+                  <c:v>1517.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1100.0</c:v>
+                  <c:v>1206.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1106.0</c:v>
+                  <c:v>1687.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1071.0</c:v>
+                  <c:v>1458.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1089.0</c:v>
+                  <c:v>396.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1067.0</c:v>
+                  <c:v>938.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1124.0</c:v>
+                  <c:v>1146.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1119.0</c:v>
+                  <c:v>853.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1134.0</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1100.0</c:v>
+                  <c:v>793.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1129.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1115.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>640.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6006,97 +5947,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1073.0</c:v>
+                  <c:v>1144.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1074.0</c:v>
+                  <c:v>1145.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1077.0</c:v>
+                  <c:v>1146.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1089.0</c:v>
+                  <c:v>1151.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1093.0</c:v>
+                  <c:v>1152.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1100.0</c:v>
+                  <c:v>1156.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1105.0</c:v>
+                  <c:v>1161.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1110.0</c:v>
+                  <c:v>1173.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1112.0</c:v>
+                  <c:v>1176.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1118.0</c:v>
+                  <c:v>1182.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1126.0</c:v>
+                  <c:v>1188.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1134.0</c:v>
+                  <c:v>1190.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1135.0</c:v>
+                  <c:v>1191.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1137.0</c:v>
+                  <c:v>1198.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1140.0</c:v>
+                  <c:v>1199.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1143.0</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1144.0</c:v>
+                  <c:v>1203.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1147.0</c:v>
+                  <c:v>1206.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1148.0</c:v>
+                  <c:v>1210.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1152.0</c:v>
+                  <c:v>1211.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1153.0</c:v>
+                  <c:v>1212.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1156.0</c:v>
+                  <c:v>1222.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1160.0</c:v>
+                  <c:v>1223.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1164.0</c:v>
+                  <c:v>1229.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1167.0</c:v>
+                  <c:v>1231.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1169.0</c:v>
+                  <c:v>1234.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1173.0</c:v>
+                  <c:v>1235.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1174.0</c:v>
+                  <c:v>1246.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1181.0</c:v>
+                  <c:v>1247.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1185.0</c:v>
+                  <c:v>1248.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1192.0</c:v>
+                  <c:v>1256.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1259.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1266.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1269.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1275.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6108,96 +6061,108 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>965.0</c:v>
+                  <c:v>1025.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>853.0</c:v>
+                  <c:v>849.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>772.0</c:v>
+                  <c:v>761.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>689.0</c:v>
+                  <c:v>685.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>683.0</c:v>
+                  <c:v>608.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>544.0</c:v>
+                  <c:v>573.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>524.0</c:v>
+                  <c:v>527.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>461.0</c:v>
+                  <c:v>475.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>422.0</c:v>
+                  <c:v>467.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>348.0</c:v>
+                  <c:v>436.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>323.0</c:v>
+                  <c:v>416.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>267.0</c:v>
+                  <c:v>390.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>255.0</c:v>
+                  <c:v>376.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>252.0</c:v>
+                  <c:v>364.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>248.0</c:v>
+                  <c:v>359.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>246.0</c:v>
+                  <c:v>337.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>217.0</c:v>
+                  <c:v>330.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>205.0</c:v>
+                  <c:v>325.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>202.0</c:v>
+                  <c:v>317.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>199.0</c:v>
+                  <c:v>312.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>174.0</c:v>
+                  <c:v>277.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>169.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>159.0</c:v>
+                  <c:v>231.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>141.0</c:v>
+                  <c:v>226.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>105.0</c:v>
+                  <c:v>201.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>93.0</c:v>
+                  <c:v>194.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>74.0</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>73.0</c:v>
+                  <c:v>155.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>55.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.0</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6213,14 +6178,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106772208"/>
-        <c:axId val="-2106768912"/>
+        <c:axId val="2146722064"/>
+        <c:axId val="-2107271008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106772208"/>
+        <c:axId val="2146722064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1065.0"/>
+          <c:max val="1280.0"/>
+          <c:min val="1150.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6275,14 +6241,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106768912"/>
+        <c:crossAx val="-2107271008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106768912"/>
+        <c:axId val="-2107271008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3000.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6337,7 +6305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106772208"/>
+        <c:crossAx val="2146722064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6550,52 +6518,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>150.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152.0</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>154.0</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156.0</c:v>
+                  <c:v>138.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>158.0</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159.0</c:v>
+                  <c:v>143.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>161.0</c:v>
+                  <c:v>145.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>162.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>163.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>164.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>166.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>167.0</c:v>
+                  <c:v>146.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6607,52 +6560,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>110.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.0</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.0</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.0</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6696,43 +6634,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>150.0</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154.0</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>157.0</c:v>
+                  <c:v>135.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>158.0</c:v>
+                  <c:v>137.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>161.0</c:v>
+                  <c:v>138.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>162.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>163.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165.0</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>167.0</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>171.0</c:v>
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6744,43 +6688,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>142.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117.0</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.0</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.0</c:v>
+                  <c:v>106.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.0</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.0</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>29.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.0</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6824,43 +6774,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>150.0</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153.0</c:v>
+                  <c:v>135.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.0</c:v>
+                  <c:v>137.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>158.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>159.0</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>161.0</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>162.0</c:v>
+                  <c:v>143.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>163.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>167.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>173.0</c:v>
+                  <c:v>146.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6872,42 +6816,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>116.0</c:v>
+                  <c:v>119.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.0</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.0</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.0</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6958,40 +6896,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>151.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152.0</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>158.0</c:v>
+                  <c:v>137.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>159.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>162.0</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>165.0</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>166.0</c:v>
+                  <c:v>143.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>167.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>173.0</c:v>
+                  <c:v>146.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7003,40 +6941,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>147.0</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.0</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.0</c:v>
+                  <c:v>151.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.0</c:v>
+                  <c:v>117.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.0</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7086,37 +7024,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>155.0</c:v>
+                  <c:v>135.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.0</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157.0</c:v>
+                  <c:v>137.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>158.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>161.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162.0</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>164.0</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>165.0</c:v>
+                  <c:v>143.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>173.0</c:v>
+                  <c:v>146.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7128,36 +7063,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>76.0</c:v>
+                  <c:v>145.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7173,15 +7105,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106709904"/>
-        <c:axId val="-2106706720"/>
+        <c:axId val="-2048505776"/>
+        <c:axId val="-2048485680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106709904"/>
+        <c:axId val="-2048505776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="175.0"/>
-          <c:min val="150.0"/>
+          <c:max val="150.0"/>
+          <c:min val="125.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7236,12 +7168,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106706720"/>
+        <c:crossAx val="-2048485680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106706720"/>
+        <c:axId val="-2048485680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7298,7 +7230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106709904"/>
+        <c:crossAx val="-2048505776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12903,334 +12835,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M225"/>
+  <dimension ref="A1:M223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="N86" sqref="N86"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="M230" sqref="M230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B1">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C1">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D1">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="E1">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F1">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B2">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="C2">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>279</v>
       </c>
       <c r="E2">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F2">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="C3">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="D3">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="E3">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F3">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B4">
+        <v>175</v>
+      </c>
+      <c r="C4">
         <v>123</v>
       </c>
-      <c r="C4">
-        <v>154</v>
-      </c>
       <c r="D4">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="E4">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F4">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B5">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C5">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D5">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="E5">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B6">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="C6">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="E6">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B7">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C7">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D7">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="E7">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B8">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C8">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D8">
-        <v>132</v>
+        <v>278</v>
+      </c>
+      <c r="E8">
+        <v>133</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B9">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C9">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D9">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B10">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C10">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D10">
-        <v>139</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D11">
-        <v>129</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B12">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="D12">
-        <v>131</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B13">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C13">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D13">
-        <v>123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B14">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="C14">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D14">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B15">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C15">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D15">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B16">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C16">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D16">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B17">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C17">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D17">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B18">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C18">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D18">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B19">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C19">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D19">
-        <v>132</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B20">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C20">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D20">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -13251,402 +13189,330 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="B23">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="C23">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="D23">
-        <v>614</v>
+        <v>578</v>
       </c>
       <c r="E23">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="F23">
-        <v>288</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B24">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="C24">
-        <v>304</v>
+        <v>233</v>
       </c>
       <c r="D24">
-        <v>304</v>
+        <v>575</v>
       </c>
       <c r="E24">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="F24">
-        <v>259</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="B25">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C25">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="D25">
-        <v>299</v>
+        <v>554</v>
       </c>
       <c r="E25">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="F25">
-        <v>256</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="B26">
-        <v>363</v>
+        <v>282</v>
       </c>
       <c r="C26">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>474</v>
       </c>
       <c r="E26">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="F26">
-        <v>251</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="B27">
-        <v>360</v>
+        <v>265</v>
       </c>
       <c r="C27">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="D27">
-        <v>302</v>
+        <v>536</v>
       </c>
       <c r="E27">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="F27">
-        <v>229</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B28">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="C28">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="D28">
-        <v>302</v>
+        <v>552</v>
       </c>
       <c r="E28">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="F28">
-        <v>221</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B29">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="C29">
-        <v>307</v>
+        <v>249</v>
       </c>
       <c r="D29">
-        <v>302</v>
+        <v>466</v>
       </c>
       <c r="E29">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="F29">
-        <v>203</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="B30">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="C30">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="D30">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="E30">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="F30">
-        <v>154</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="B31">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="C31">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="D31">
-        <v>305</v>
-      </c>
-      <c r="E31">
-        <v>287</v>
-      </c>
-      <c r="F31">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="B32">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="C32">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="D32">
-        <v>296</v>
-      </c>
-      <c r="E32">
-        <v>289</v>
-      </c>
-      <c r="F32">
-        <v>111</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="B33">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C33">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="D33">
-        <v>305</v>
-      </c>
-      <c r="E33">
-        <v>290</v>
-      </c>
-      <c r="F33">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="B34">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C34">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="D34">
-        <v>305</v>
-      </c>
-      <c r="E34">
-        <v>293</v>
-      </c>
-      <c r="F34">
-        <v>79</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="B35">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C35">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="D35">
-        <v>299</v>
-      </c>
-      <c r="E35">
-        <v>294</v>
-      </c>
-      <c r="F35">
-        <v>70</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="B36">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="C36">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="D36">
-        <v>296</v>
-      </c>
-      <c r="E36">
-        <v>295</v>
-      </c>
-      <c r="F36">
-        <v>68</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="B37">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="C37">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="D37">
-        <v>296</v>
-      </c>
-      <c r="E37">
-        <v>296</v>
-      </c>
-      <c r="F37">
-        <v>61</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="B38">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C38">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="D38">
-        <v>296</v>
-      </c>
-      <c r="E38">
-        <v>297</v>
-      </c>
-      <c r="F38">
-        <v>49</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="B39">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="C39">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="D39">
-        <v>299</v>
-      </c>
-      <c r="E39">
-        <v>298</v>
-      </c>
-      <c r="F39">
-        <v>42</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="B40">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="C40">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="D40">
-        <v>299</v>
-      </c>
-      <c r="E40">
-        <v>299</v>
-      </c>
-      <c r="F40">
-        <v>37</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="B41">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="C41">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="D41">
-        <v>299</v>
-      </c>
-      <c r="E41">
-        <v>302</v>
-      </c>
-      <c r="F41">
-        <v>35</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="B42">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="C42">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="D42">
-        <v>304</v>
-      </c>
-      <c r="E42">
-        <v>303</v>
-      </c>
-      <c r="F42">
-        <v>27</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -13656,366 +13522,378 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B44">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="C44">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D44">
-        <v>828</v>
+        <v>802</v>
       </c>
       <c r="E44">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F44">
-        <v>400</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B45">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="C45">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>779</v>
       </c>
       <c r="E45">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F45">
-        <v>308</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B46">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="C46">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="D46">
-        <v>396</v>
+        <v>738</v>
       </c>
       <c r="E46">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F46">
-        <v>252</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B47">
-        <v>482</v>
+        <v>415</v>
       </c>
       <c r="C47">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="D47">
-        <v>394</v>
+        <v>770</v>
       </c>
       <c r="E47">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F47">
-        <v>249</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B48">
-        <v>461</v>
+        <v>369</v>
       </c>
       <c r="C48">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="D48">
-        <v>402</v>
+        <v>634</v>
       </c>
       <c r="E48">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F48">
-        <v>229</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B49">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C49">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="D49">
-        <v>398</v>
+        <v>622</v>
       </c>
       <c r="E49">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F49">
-        <v>219</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B50">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C50">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="D50">
-        <v>396</v>
+        <v>556</v>
       </c>
       <c r="E50">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F50">
-        <v>205</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="B51">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="C51">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="D51">
-        <v>398</v>
+        <v>557</v>
       </c>
       <c r="E51">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F51">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B52">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="C52">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="D52">
-        <v>401</v>
+        <v>101</v>
       </c>
       <c r="E52">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F52">
-        <v>157</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B53">
-        <v>354</v>
+        <v>452</v>
       </c>
       <c r="C53">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D53">
-        <v>404</v>
+        <v>181</v>
       </c>
       <c r="E53">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F53">
-        <v>153</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B54">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="C54">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D54">
-        <v>402</v>
+        <v>89</v>
       </c>
       <c r="E54">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F54">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="B55">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="C55">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D55">
-        <v>395</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F55">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B56">
-        <v>439</v>
+        <v>365</v>
       </c>
       <c r="C56">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D56">
-        <v>395</v>
+        <v>234</v>
       </c>
       <c r="E56">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F56">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B57">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="C57">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D57">
-        <v>402</v>
+        <v>172</v>
       </c>
       <c r="E57">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="F57">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B58">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C58">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D58">
-        <v>403</v>
+        <v>237</v>
+      </c>
+      <c r="E58">
+        <v>353</v>
+      </c>
+      <c r="F58">
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B59">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="C59">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D59">
-        <v>397</v>
+        <v>286</v>
+      </c>
+      <c r="E59">
+        <v>361</v>
+      </c>
+      <c r="F59">
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B60">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="C60">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D60">
-        <v>396</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B61">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="C61">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D61">
-        <v>397</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B62">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C62">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D62">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B63">
-        <v>470</v>
+        <v>397</v>
       </c>
       <c r="C63">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D63">
-        <v>394</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -14025,384 +13903,354 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="B66">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="C66">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="D66">
-        <v>1121</v>
+        <v>1082</v>
       </c>
       <c r="E66">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="F66">
-        <v>591</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="B67">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="C67">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="D67">
-        <v>1121</v>
+        <v>1079</v>
       </c>
       <c r="E67">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="F67">
-        <v>556</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="B68">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="C68">
-        <v>530</v>
+        <v>444</v>
       </c>
       <c r="D68">
-        <v>22</v>
+        <v>985</v>
       </c>
       <c r="E68">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="F68">
-        <v>528</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="B69">
-        <v>693</v>
+        <v>619</v>
       </c>
       <c r="C69">
-        <v>538</v>
+        <v>447</v>
       </c>
       <c r="D69">
-        <v>556</v>
+        <v>1073</v>
       </c>
       <c r="E69">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="F69">
-        <v>475</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="B70">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="C70">
-        <v>538</v>
+        <v>452</v>
       </c>
       <c r="D70">
-        <v>555</v>
+        <v>914</v>
       </c>
       <c r="E70">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="F70">
-        <v>452</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>527</v>
+        <v>494</v>
       </c>
       <c r="B71">
-        <v>522</v>
+        <v>568</v>
       </c>
       <c r="C71">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="D71">
-        <v>545</v>
+        <v>891</v>
       </c>
       <c r="E71">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="F71">
-        <v>438</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="B72">
-        <v>587</v>
+        <v>481</v>
       </c>
       <c r="C72">
-        <v>538</v>
+        <v>461</v>
       </c>
       <c r="D72">
-        <v>553</v>
+        <v>803</v>
       </c>
       <c r="E72">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="F72">
-        <v>411</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>530</v>
+        <v>499</v>
       </c>
       <c r="B73">
-        <v>563</v>
+        <v>500</v>
       </c>
       <c r="C73">
-        <v>538</v>
+        <v>464</v>
       </c>
       <c r="D73">
-        <v>556</v>
+        <v>780</v>
       </c>
       <c r="E73">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F73">
-        <v>353</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>536</v>
+        <v>499</v>
       </c>
       <c r="B74">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C74">
-        <v>538</v>
+        <v>475</v>
       </c>
       <c r="D74">
-        <v>555</v>
+        <v>703</v>
       </c>
       <c r="E74">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="F74">
-        <v>349</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="B75">
-        <v>581</v>
+        <v>531</v>
       </c>
       <c r="C75">
-        <v>538</v>
+        <v>479</v>
       </c>
       <c r="D75">
-        <v>554</v>
+        <v>383</v>
       </c>
       <c r="E75">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="F75">
-        <v>336</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="B76">
-        <v>621</v>
+        <v>546</v>
       </c>
       <c r="C76">
-        <v>540</v>
+        <v>482</v>
       </c>
       <c r="D76">
-        <v>555</v>
+        <v>377</v>
       </c>
       <c r="E76">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="F76">
-        <v>334</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="B77">
-        <v>557</v>
+        <v>595</v>
       </c>
       <c r="C77">
-        <v>540</v>
+        <v>485</v>
       </c>
       <c r="D77">
-        <v>555</v>
+        <v>235</v>
       </c>
       <c r="E77">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="F77">
-        <v>300</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="B78">
-        <v>489</v>
+        <v>576</v>
       </c>
       <c r="C78">
-        <v>540</v>
+        <v>487</v>
       </c>
       <c r="D78">
-        <v>554</v>
-      </c>
-      <c r="E78">
-        <v>507</v>
-      </c>
-      <c r="F78">
-        <v>282</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="B79">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="C79">
-        <v>540</v>
+        <v>488</v>
       </c>
       <c r="D79">
-        <v>553</v>
-      </c>
-      <c r="E79">
-        <v>508</v>
-      </c>
-      <c r="F79">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="B80">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="C80">
-        <v>540</v>
+        <v>494</v>
       </c>
       <c r="D80">
-        <v>555</v>
-      </c>
-      <c r="E80">
-        <v>510</v>
-      </c>
-      <c r="F80">
-        <v>225</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="B81">
-        <v>612</v>
+        <v>568</v>
       </c>
       <c r="C81">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="D81">
-        <v>554</v>
-      </c>
-      <c r="E81">
-        <v>513</v>
-      </c>
-      <c r="F81">
-        <v>196</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="B82">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C82">
-        <v>540</v>
+        <v>496</v>
       </c>
       <c r="D82">
-        <v>552</v>
-      </c>
-      <c r="E82">
-        <v>530</v>
-      </c>
-      <c r="F82">
-        <v>186</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="B83">
-        <v>509</v>
+        <v>559</v>
       </c>
       <c r="C83">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="D83">
-        <v>545</v>
+        <v>522</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="B84">
+        <v>500</v>
+      </c>
+      <c r="C84">
+        <v>511</v>
+      </c>
+      <c r="D84">
         <v>507</v>
-      </c>
-      <c r="C84">
-        <v>544</v>
-      </c>
-      <c r="D84">
-        <v>552</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="B85">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="C85">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="D85">
-        <v>545</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -14571,37 +14419,37 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>6.0819999999999999</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>2.2360000000000002</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>2.3460000000000001</v>
+        <v>0</v>
       </c>
       <c r="G93">
+        <v>7.0709999999999997</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>0</v>
       </c>
-      <c r="H93">
+      <c r="J93">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="K93">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="L93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>1.4139999999999999</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
+      <c r="M93">
         <v>2.2360000000000002</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -14609,40 +14457,40 @@
         <v>10</v>
       </c>
       <c r="B94">
-        <v>35.85</v>
+        <v>4.8730000000000002</v>
       </c>
       <c r="C94">
-        <v>7.9459999999999997</v>
+        <v>6.77</v>
       </c>
       <c r="D94">
-        <v>3.4350000000000001</v>
+        <v>2.5209999999999999</v>
       </c>
       <c r="E94">
-        <v>89.31</v>
+        <v>22.035</v>
       </c>
       <c r="F94">
-        <v>4.319</v>
+        <v>3.1480000000000001</v>
       </c>
       <c r="G94">
-        <v>7.4939999999999998</v>
+        <v>5.8380000000000001</v>
       </c>
       <c r="H94">
-        <v>120.7</v>
+        <v>15.222</v>
       </c>
       <c r="I94">
-        <v>7.2720000000000002</v>
+        <v>10.18</v>
       </c>
       <c r="J94">
-        <v>24.67</v>
+        <v>16.937999999999999</v>
       </c>
       <c r="K94">
-        <v>113.77500000000001</v>
+        <v>20.068000000000001</v>
       </c>
       <c r="L94">
-        <v>14.436</v>
+        <v>6.7569999999999997</v>
       </c>
       <c r="M94">
-        <v>9.8390000000000004</v>
+        <v>6.508</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -14657,324 +14505,330 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B98">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C98">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D98">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="E98">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F98">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B99">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="C99">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D99">
-        <v>6</v>
+        <v>279</v>
       </c>
       <c r="E99">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F99">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B100">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="C100">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="D100">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="E100">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F100">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B101">
+        <v>175</v>
+      </c>
+      <c r="C101">
         <v>123</v>
       </c>
-      <c r="C101">
-        <v>154</v>
-      </c>
       <c r="D101">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="E101">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F101">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B102">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C102">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D102">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="E102">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F102">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B103">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="C103">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D103">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="E103">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F103">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B104">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C104">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D104">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="E104">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B105">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C105">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D105">
-        <v>132</v>
+        <v>278</v>
+      </c>
+      <c r="E105">
+        <v>133</v>
+      </c>
+      <c r="F105">
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B106">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C106">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D106">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B107">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C107">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D107">
-        <v>139</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B108">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C108">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D108">
-        <v>129</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B109">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C109">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="D109">
-        <v>131</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B110">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C110">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D110">
-        <v>123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B111">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="C111">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D111">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B112">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C112">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D112">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B113">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C113">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D113">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B114">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C114">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D114">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B115">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C115">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D115">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B116">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C116">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D116">
-        <v>132</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B117">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C117">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D117">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -14984,330 +14838,336 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="B120">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C120">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="D120">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="E120">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="F120">
-        <v>174</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="B121">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C121">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D121">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="E121">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="F121">
-        <v>145</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="B122">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C122">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D122">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="E122">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="F122">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B123">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C123">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D123">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="E123">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F123">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="B124">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C124">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D124">
+        <v>277</v>
+      </c>
+      <c r="E124">
         <v>161</v>
       </c>
-      <c r="E124">
-        <v>130</v>
-      </c>
       <c r="F124">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="B125">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C125">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D125">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="E125">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F125">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="B126">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C126">
         <v>166</v>
       </c>
       <c r="D126">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="E126">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="F126">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B127">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C127">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D127">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="E127">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="F127">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B128">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C128">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D128">
-        <v>157</v>
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>172</v>
+      </c>
+      <c r="F128">
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="B129">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="C129">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D129">
-        <v>161</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="B130">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C130">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D130">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="B131">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="C131">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D131">
-        <v>165</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="B132">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="C132">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D132">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="B133">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C133">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D133">
-        <v>157</v>
+        <v>63</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="B134">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C134">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D134">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B135">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="C135">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="D135">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B136">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="C136">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="D136">
-        <v>157</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B137">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C137">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="D137">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="B138">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="C138">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="D138">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="B139">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C139">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="D139">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -15322,324 +15182,330 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B144">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C144">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D144">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="E144">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F144">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B145">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="C145">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D145">
-        <v>6</v>
+        <v>279</v>
       </c>
       <c r="E145">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F145">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B146">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="C146">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="D146">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="E146">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F146">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B147">
+        <v>175</v>
+      </c>
+      <c r="C147">
         <v>123</v>
       </c>
-      <c r="C147">
-        <v>154</v>
-      </c>
       <c r="D147">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="E147">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F147">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B148">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C148">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D148">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="E148">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F148">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B149">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="C149">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D149">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="E149">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F149">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B150">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C150">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D150">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="E150">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F150">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B151">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C151">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D151">
-        <v>132</v>
+        <v>278</v>
+      </c>
+      <c r="E151">
+        <v>133</v>
+      </c>
+      <c r="F151">
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B152">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C152">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D152">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B153">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C153">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D153">
-        <v>139</v>
+        <v>226</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B154">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C154">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D154">
-        <v>129</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B155">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C155">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="D155">
-        <v>131</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B156">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C156">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D156">
-        <v>123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B157">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="C157">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D157">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B158">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C158">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D158">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B159">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C159">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D159">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B160">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C160">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D160">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B161">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C161">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D161">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B162">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C162">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D162">
-        <v>132</v>
+        <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B163">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C163">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D163">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -15649,489 +15515,521 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>1103</v>
+        <v>1165</v>
       </c>
       <c r="B166">
-        <v>990</v>
+        <v>1659</v>
       </c>
       <c r="C166">
-        <v>1068</v>
+        <v>1144</v>
       </c>
       <c r="D166">
-        <v>2311</v>
+        <v>2953</v>
       </c>
       <c r="E166">
-        <v>1073</v>
+        <v>1144</v>
       </c>
       <c r="F166">
-        <v>965</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>1109</v>
+        <v>1169</v>
       </c>
       <c r="B167">
-        <v>1438</v>
+        <v>1708</v>
       </c>
       <c r="C167">
-        <v>1133</v>
+        <v>1145</v>
       </c>
       <c r="D167">
-        <v>1089</v>
+        <v>2314</v>
       </c>
       <c r="E167">
-        <v>1074</v>
+        <v>1145</v>
       </c>
       <c r="F167">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>1121</v>
+        <v>1192</v>
       </c>
       <c r="B168">
-        <v>1256</v>
+        <v>1172</v>
       </c>
       <c r="C168">
-        <v>1133</v>
+        <v>1163</v>
       </c>
       <c r="D168">
-        <v>1118</v>
+        <v>2254</v>
       </c>
       <c r="E168">
-        <v>1077</v>
+        <v>1146</v>
       </c>
       <c r="F168">
-        <v>772</v>
+        <v>761</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>1121</v>
+        <v>1192</v>
       </c>
       <c r="B169">
-        <v>1211</v>
+        <v>1765</v>
       </c>
       <c r="C169">
-        <v>1133</v>
+        <v>1178</v>
       </c>
       <c r="D169">
-        <v>1124</v>
+        <v>1883</v>
       </c>
       <c r="E169">
-        <v>1089</v>
+        <v>1151</v>
       </c>
       <c r="F169">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>1130</v>
+        <v>1197</v>
       </c>
       <c r="B170">
-        <v>1001</v>
+        <v>1516</v>
       </c>
       <c r="C170">
-        <v>1134</v>
+        <v>1190</v>
       </c>
       <c r="D170">
-        <v>1108</v>
+        <v>2817</v>
       </c>
       <c r="E170">
-        <v>1093</v>
+        <v>1152</v>
       </c>
       <c r="F170">
-        <v>683</v>
+        <v>608</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>1133</v>
+        <v>1201</v>
       </c>
       <c r="B171">
-        <v>1176</v>
+        <v>1758</v>
       </c>
       <c r="C171">
-        <v>1134</v>
+        <v>1199</v>
       </c>
       <c r="D171">
-        <v>1086</v>
+        <v>2093</v>
       </c>
       <c r="E171">
-        <v>1100</v>
+        <v>1156</v>
       </c>
       <c r="F171">
-        <v>544</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>1133</v>
+        <v>1209</v>
       </c>
       <c r="B172">
-        <v>1022</v>
+        <v>1355</v>
       </c>
       <c r="C172">
-        <v>1134</v>
+        <v>1205</v>
       </c>
       <c r="D172">
-        <v>1143</v>
+        <v>2757</v>
       </c>
       <c r="E172">
-        <v>1105</v>
+        <v>1161</v>
       </c>
       <c r="F172">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>1137</v>
+        <v>1211</v>
       </c>
       <c r="B173">
-        <v>1308</v>
+        <v>1472</v>
       </c>
       <c r="C173">
-        <v>1134</v>
+        <v>1216</v>
       </c>
       <c r="D173">
-        <v>1111</v>
+        <v>1517</v>
       </c>
       <c r="E173">
-        <v>1110</v>
+        <v>1173</v>
       </c>
       <c r="F173">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>1141</v>
+        <v>1217</v>
       </c>
       <c r="B174">
-        <v>1008</v>
+        <v>1405</v>
       </c>
       <c r="C174">
-        <v>1137</v>
+        <v>1221</v>
       </c>
       <c r="D174">
-        <v>1100</v>
+        <v>1206</v>
       </c>
       <c r="E174">
-        <v>1112</v>
+        <v>1176</v>
       </c>
       <c r="F174">
-        <v>422</v>
+        <v>467</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>1141</v>
+        <v>1217</v>
       </c>
       <c r="B175">
-        <v>1164</v>
+        <v>1728</v>
       </c>
       <c r="C175">
-        <v>1137</v>
+        <v>1225</v>
       </c>
       <c r="D175">
-        <v>1106</v>
+        <v>1687</v>
       </c>
       <c r="E175">
-        <v>1118</v>
+        <v>1182</v>
       </c>
       <c r="F175">
-        <v>348</v>
+        <v>436</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>1141</v>
+        <v>1217</v>
       </c>
       <c r="B176">
-        <v>840</v>
+        <v>1705</v>
       </c>
       <c r="C176">
-        <v>1137</v>
+        <v>1225</v>
       </c>
       <c r="D176">
-        <v>1071</v>
+        <v>1458</v>
       </c>
       <c r="E176">
-        <v>1126</v>
+        <v>1188</v>
       </c>
       <c r="F176">
-        <v>323</v>
+        <v>416</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>1144</v>
+        <v>1220</v>
       </c>
       <c r="B177">
-        <v>1169</v>
+        <v>1471</v>
       </c>
       <c r="C177">
-        <v>1141</v>
+        <v>1235</v>
       </c>
       <c r="D177">
-        <v>1089</v>
+        <v>396</v>
       </c>
       <c r="E177">
-        <v>1134</v>
+        <v>1190</v>
       </c>
       <c r="F177">
-        <v>267</v>
+        <v>390</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>1144</v>
+        <v>1226</v>
       </c>
       <c r="B178">
-        <v>1321</v>
+        <v>1435</v>
       </c>
       <c r="C178">
-        <v>1141</v>
+        <v>1235</v>
       </c>
       <c r="D178">
-        <v>1067</v>
+        <v>938</v>
       </c>
       <c r="E178">
-        <v>1135</v>
+        <v>1191</v>
       </c>
       <c r="F178">
-        <v>255</v>
+        <v>376</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>1144</v>
+        <v>1226</v>
       </c>
       <c r="B179">
-        <v>1163</v>
+        <v>1422</v>
       </c>
       <c r="C179">
-        <v>1141</v>
+        <v>1246</v>
       </c>
       <c r="D179">
-        <v>1124</v>
+        <v>1146</v>
       </c>
       <c r="E179">
-        <v>1137</v>
+        <v>1198</v>
       </c>
       <c r="F179">
-        <v>252</v>
+        <v>364</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>1144</v>
+        <v>1226</v>
       </c>
       <c r="B180">
-        <v>1153</v>
+        <v>1557</v>
       </c>
       <c r="C180">
-        <v>1141</v>
+        <v>1254</v>
       </c>
       <c r="D180">
-        <v>1119</v>
+        <v>853</v>
       </c>
       <c r="E180">
-        <v>1140</v>
+        <v>1199</v>
       </c>
       <c r="F180">
-        <v>248</v>
+        <v>359</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>1151</v>
+        <v>1234</v>
       </c>
       <c r="B181">
-        <v>892</v>
+        <v>1867</v>
       </c>
       <c r="C181">
-        <v>1141</v>
+        <v>1264</v>
       </c>
       <c r="D181">
-        <v>1134</v>
+        <v>700</v>
       </c>
       <c r="E181">
-        <v>1143</v>
+        <v>1200</v>
       </c>
       <c r="F181">
-        <v>246</v>
+        <v>337</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>1151</v>
+        <v>1246</v>
       </c>
       <c r="B182">
-        <v>1393</v>
+        <v>1501</v>
       </c>
       <c r="C182">
-        <v>1151</v>
+        <v>1267</v>
       </c>
       <c r="D182">
-        <v>1100</v>
+        <v>793</v>
       </c>
       <c r="E182">
-        <v>1144</v>
+        <v>1203</v>
       </c>
       <c r="F182">
-        <v>217</v>
+        <v>330</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>1158</v>
+        <v>1259</v>
       </c>
       <c r="B183">
-        <v>1338</v>
+        <v>1118</v>
       </c>
       <c r="C183">
-        <v>1151</v>
+        <v>1275</v>
       </c>
       <c r="D183">
-        <v>1129</v>
+        <v>6</v>
       </c>
       <c r="E183">
-        <v>1147</v>
+        <v>1206</v>
       </c>
       <c r="F183">
-        <v>205</v>
+        <v>325</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>1160</v>
+        <v>1261</v>
       </c>
       <c r="B184">
-        <v>1080</v>
+        <v>1024</v>
       </c>
       <c r="C184">
-        <v>1151</v>
+        <v>1275</v>
       </c>
       <c r="D184">
-        <v>1115</v>
+        <v>199</v>
       </c>
       <c r="E184">
-        <v>1148</v>
+        <v>1210</v>
       </c>
       <c r="F184">
-        <v>202</v>
+        <v>317</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>1160</v>
+        <v>1265</v>
       </c>
       <c r="B185">
-        <v>1070</v>
+        <v>1245</v>
       </c>
       <c r="C185">
-        <v>1192</v>
+        <v>1279</v>
       </c>
       <c r="D185">
-        <v>6</v>
+        <v>640</v>
       </c>
       <c r="E185">
-        <v>1152</v>
+        <v>1211</v>
       </c>
       <c r="F185">
-        <v>199</v>
+        <v>312</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E186">
-        <v>1153</v>
+        <v>1212</v>
       </c>
       <c r="F186">
-        <v>174</v>
+        <v>277</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E187">
-        <v>1156</v>
+        <v>1222</v>
       </c>
       <c r="F187">
-        <v>169</v>
+        <v>240</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E188">
-        <v>1160</v>
+        <v>1223</v>
       </c>
       <c r="F188">
-        <v>159</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E189">
-        <v>1164</v>
+        <v>1229</v>
       </c>
       <c r="F189">
-        <v>141</v>
+        <v>226</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E190">
-        <v>1167</v>
+        <v>1231</v>
       </c>
       <c r="F190">
-        <v>105</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E191">
-        <v>1169</v>
+        <v>1234</v>
       </c>
       <c r="F191">
-        <v>93</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E192">
-        <v>1173</v>
+        <v>1235</v>
       </c>
       <c r="F192">
-        <v>74</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E193">
-        <v>1174</v>
+        <v>1246</v>
       </c>
       <c r="F193">
-        <v>73</v>
+        <v>155</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E194">
-        <v>1181</v>
+        <v>1247</v>
       </c>
       <c r="F194">
-        <v>55</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E195">
-        <v>1185</v>
+        <v>1248</v>
       </c>
       <c r="F195">
-        <v>24</v>
+        <v>134</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E196">
-        <v>1192</v>
+        <v>1256</v>
       </c>
       <c r="F196">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E197">
+        <v>1259</v>
+      </c>
+      <c r="F197">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E198">
+        <v>1266</v>
+      </c>
+      <c r="F198">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E199">
+        <v>1269</v>
+      </c>
+      <c r="F199">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E200">
+        <v>1275</v>
+      </c>
+      <c r="F200">
         <v>6</v>
       </c>
     </row>
@@ -16154,287 +16052,287 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B209">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C209">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D209">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E209">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F209">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G209">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="H209">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="I209">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="J209">
-        <v>76</v>
+        <v>145</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B210">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C210">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D210">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E210">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F210">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G210">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H210">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="I210">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="J210">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B211">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C211">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D211">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E211">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F211">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G211">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="H211">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="I211">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="J211">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B212">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C212">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D212">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E212">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="F212">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G212">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="H212">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="I212">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="J212">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B213">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C213">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D213">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E213">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F213">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="G213">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="H213">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I213">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="J213">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B214">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C214">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D214">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E214">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="F214">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G214">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="H214">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I214">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="J214">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B215">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C215">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D215">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E215">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F215">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G215">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="H215">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I215">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="J215">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B216">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C216">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D216">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E216">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F216">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G216">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="H216">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I216">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="J216">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B217">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C217">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D217">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E217">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F217">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G217">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="H217">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I217">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="J217">
         <v>12</v>
@@ -16442,144 +16340,98 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B218">
+        <v>11</v>
+      </c>
+      <c r="C218">
+        <v>140</v>
+      </c>
+      <c r="D218">
         <v>29</v>
       </c>
-      <c r="C218">
-        <v>163</v>
-      </c>
-      <c r="D218">
-        <v>23</v>
-      </c>
       <c r="E218">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F218">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G218">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="H218">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I218">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="J218">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B219">
+        <v>6</v>
+      </c>
+      <c r="C219">
+        <v>141</v>
+      </c>
+      <c r="D219">
         <v>25</v>
       </c>
-      <c r="C219">
-        <v>165</v>
-      </c>
-      <c r="D219">
-        <v>15</v>
-      </c>
       <c r="E219">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F219">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G219">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="H219">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C220">
+        <v>142</v>
+      </c>
+      <c r="D220">
+        <v>21</v>
+      </c>
+      <c r="G220">
+        <v>146</v>
+      </c>
+      <c r="H220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C221">
+        <v>143</v>
+      </c>
+      <c r="D221">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C222">
+        <v>144</v>
+      </c>
+      <c r="D222">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C223">
+        <v>147</v>
+      </c>
+      <c r="D223">
         <v>9</v>
-      </c>
-      <c r="I219">
-        <v>173</v>
-      </c>
-      <c r="J219">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>163</v>
-      </c>
-      <c r="B220">
-        <v>23</v>
-      </c>
-      <c r="C220">
-        <v>167</v>
-      </c>
-      <c r="D220">
-        <v>9</v>
-      </c>
-      <c r="E220">
-        <v>167</v>
-      </c>
-      <c r="F220">
-        <v>10</v>
-      </c>
-      <c r="G220">
-        <v>173</v>
-      </c>
-      <c r="H220">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>164</v>
-      </c>
-      <c r="B221">
-        <v>22</v>
-      </c>
-      <c r="C221">
-        <v>171</v>
-      </c>
-      <c r="D221">
-        <v>6</v>
-      </c>
-      <c r="E221">
-        <v>173</v>
-      </c>
-      <c r="F221">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>165</v>
-      </c>
-      <c r="B222">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>166</v>
-      </c>
-      <c r="B223">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>167</v>
-      </c>
-      <c r="B224">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>170</v>
-      </c>
-      <c r="B225">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
